--- a/instances/InstanceBordeauxV1.xlsx
+++ b/instances/InstanceBordeauxV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Employees"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>TaskId</t>
   </si>
@@ -94,7 +94,7 @@
     <t>-0.7717887212411139</t>
   </si>
   <si>
-    <t>12:00am</t>
+    <t>12:00pm</t>
   </si>
   <si>
     <t>T5</t>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>-0.9365361007032235</t>
-  </si>
-  <si>
-    <t>12:00pm</t>
   </si>
   <si>
     <t>T10</t>
@@ -183,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +197,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,24 +265,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -591,17 +600,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="17.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
@@ -616,15 +625,15 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="11">
         <v>45.15121765523164</v>
@@ -638,18 +647,18 @@
       <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="13">
+        <v>45</v>
+      </c>
+      <c r="B3" s="14">
         <v>45.19957452440505</v>
       </c>
       <c r="C3" s="11">
@@ -661,7 +670,7 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -670,17 +679,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -707,7 +716,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -718,9 +727,9 @@
     <col min="5" max="5" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>3</v>
@@ -735,9 +744,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="11">
         <v>44.7546825494</v>
@@ -746,10 +755,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -764,14 +773,14 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="7.576428571428571" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="9.719285714285713" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="13.719285714285713" customWidth="1" bestFit="1"/>
@@ -1035,18 +1044,18 @@
         <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="5">
         <v>60</v>
@@ -1070,7 +1079,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
@@ -1080,7 +1089,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
@@ -1090,7 +1099,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
@@ -1100,7 +1109,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
@@ -1110,7 +1119,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
@@ -1120,7 +1129,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
@@ -1130,7 +1139,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
@@ -1140,7 +1149,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
@@ -1150,7 +1159,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
@@ -1160,7 +1169,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
@@ -1170,7 +1179,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
@@ -1180,7 +1189,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
@@ -1190,7 +1199,7 @@
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
@@ -1200,7 +1209,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
@@ -1210,7 +1219,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="7"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
@@ -1220,7 +1229,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
@@ -1230,7 +1239,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="7"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
@@ -1240,7 +1249,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
@@ -1250,7 +1259,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="7"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
@@ -1260,7 +1269,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="7"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
@@ -1270,7 +1279,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
@@ -1280,7 +1289,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="7"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
@@ -1290,7 +1299,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
@@ -1300,7 +1309,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="7"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
@@ -1310,7 +1319,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
@@ -1320,7 +1329,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="7"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
@@ -1330,7 +1339,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
@@ -1340,7 +1349,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="6"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
@@ -1350,7 +1359,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
@@ -1360,7 +1369,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
@@ -1370,7 +1379,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="7"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
@@ -1380,7 +1389,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="7"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="6"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
@@ -1390,7 +1399,7 @@
       <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="8"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
@@ -1400,7 +1409,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="8"/>
+      <c r="F45" s="6"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
@@ -1410,7 +1419,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="8"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
@@ -1420,7 +1429,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="7"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
@@ -1430,7 +1439,7 @@
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="8"/>
+      <c r="F48" s="6"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
@@ -1440,7 +1449,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="8"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
@@ -1450,7 +1459,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="8"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
@@ -1460,7 +1469,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="7"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="8"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
@@ -1470,7 +1479,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="7"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
@@ -1480,7 +1489,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
@@ -1490,7 +1499,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="7"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
@@ -1500,7 +1509,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="7"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
@@ -1510,7 +1519,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="7"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="8"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
@@ -1520,7 +1529,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="8"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
@@ -1530,7 +1539,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="7"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
@@ -1540,7 +1549,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="7"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="8"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
@@ -1550,7 +1559,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="8"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
@@ -1560,7 +1569,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="8"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
@@ -1570,7 +1579,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="8"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
@@ -1580,7 +1589,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="8"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
@@ -1590,7 +1599,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="8"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
@@ -1600,7 +1609,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="8"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
@@ -1610,7 +1619,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="8"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
@@ -1620,7 +1629,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="8"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
@@ -1630,7 +1639,7 @@
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="8"/>
+      <c r="F68" s="6"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
@@ -1640,7 +1649,7 @@
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="8"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
@@ -1650,7 +1659,7 @@
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="8"/>
+      <c r="F70" s="6"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
@@ -1660,7 +1669,7 @@
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="8"/>
+      <c r="F71" s="6"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
@@ -1670,7 +1679,7 @@
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="8"/>
+      <c r="F72" s="6"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
@@ -1680,7 +1689,7 @@
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="8"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
@@ -1690,7 +1699,7 @@
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="8"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
@@ -1700,7 +1709,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
@@ -1710,7 +1719,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
@@ -1720,7 +1729,7 @@
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="8"/>
+      <c r="F77" s="6"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
@@ -1730,7 +1739,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="7"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="8"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
@@ -1740,7 +1749,7 @@
       <c r="C79" s="4"/>
       <c r="D79" s="7"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="8"/>
+      <c r="F79" s="6"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
@@ -1750,7 +1759,7 @@
       <c r="C80" s="4"/>
       <c r="D80" s="7"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="8"/>
+      <c r="F80" s="6"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
@@ -1760,7 +1769,7 @@
       <c r="C81" s="4"/>
       <c r="D81" s="7"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="8"/>
+      <c r="F81" s="6"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
@@ -1770,7 +1779,7 @@
       <c r="C82" s="4"/>
       <c r="D82" s="7"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="8"/>
+      <c r="F82" s="6"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
@@ -1780,7 +1789,7 @@
       <c r="C83" s="4"/>
       <c r="D83" s="7"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="8"/>
+      <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
@@ -1790,7 +1799,7 @@
       <c r="C84" s="4"/>
       <c r="D84" s="7"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="8"/>
+      <c r="F84" s="6"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
@@ -1800,7 +1809,7 @@
       <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="8"/>
+      <c r="F85" s="6"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
@@ -1810,7 +1819,7 @@
       <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="6"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
@@ -1820,7 +1829,7 @@
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="6"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
@@ -1830,7 +1839,7 @@
       <c r="C88" s="4"/>
       <c r="D88" s="7"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="6"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
@@ -1840,7 +1849,7 @@
       <c r="C89" s="4"/>
       <c r="D89" s="7"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="8"/>
+      <c r="F89" s="6"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
@@ -1850,7 +1859,7 @@
       <c r="C90" s="4"/>
       <c r="D90" s="7"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="6"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
@@ -1860,7 +1869,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="7"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="6"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
@@ -1870,7 +1879,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="7"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="8"/>
+      <c r="F92" s="6"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
@@ -1880,7 +1889,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="7"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="8"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
@@ -1890,7 +1899,7 @@
       <c r="C94" s="4"/>
       <c r="D94" s="7"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
@@ -1900,7 +1909,7 @@
       <c r="C95" s="4"/>
       <c r="D95" s="7"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
@@ -1910,7 +1919,7 @@
       <c r="C96" s="4"/>
       <c r="D96" s="7"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="6"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
@@ -1920,7 +1929,7 @@
       <c r="C97" s="4"/>
       <c r="D97" s="7"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="6"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
@@ -1930,7 +1939,7 @@
       <c r="C98" s="4"/>
       <c r="D98" s="7"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="6"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
@@ -1940,7 +1949,7 @@
       <c r="C99" s="4"/>
       <c r="D99" s="7"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="6"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
@@ -1950,7 +1959,7 @@
       <c r="C100" s="4"/>
       <c r="D100" s="7"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="6"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
@@ -1960,7 +1969,7 @@
       <c r="C101" s="4"/>
       <c r="D101" s="7"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="6"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
@@ -1970,7 +1979,7 @@
       <c r="C102" s="4"/>
       <c r="D102" s="7"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="6"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
@@ -1980,7 +1989,7 @@
       <c r="C103" s="4"/>
       <c r="D103" s="7"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="6"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
@@ -1990,7 +1999,7 @@
       <c r="C104" s="4"/>
       <c r="D104" s="7"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="6"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
@@ -2000,7 +2009,7 @@
       <c r="C105" s="4"/>
       <c r="D105" s="7"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="6"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
@@ -2010,7 +2019,7 @@
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="6"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
@@ -2020,7 +2029,7 @@
       <c r="C107" s="4"/>
       <c r="D107" s="7"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="6"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
@@ -2030,7 +2039,7 @@
       <c r="C108" s="4"/>
       <c r="D108" s="7"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="6"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
@@ -2040,7 +2049,7 @@
       <c r="C109" s="4"/>
       <c r="D109" s="7"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="6"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
@@ -2050,7 +2059,7 @@
       <c r="C110" s="4"/>
       <c r="D110" s="7"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="6"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
@@ -2060,7 +2069,7 @@
       <c r="C111" s="4"/>
       <c r="D111" s="7"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="6"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
@@ -2070,7 +2079,7 @@
       <c r="C112" s="4"/>
       <c r="D112" s="7"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="6"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
@@ -2080,7 +2089,7 @@
       <c r="C113" s="4"/>
       <c r="D113" s="7"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="6"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
@@ -2090,7 +2099,7 @@
       <c r="C114" s="4"/>
       <c r="D114" s="7"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
@@ -2100,7 +2109,7 @@
       <c r="C115" s="4"/>
       <c r="D115" s="7"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="6"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
@@ -2110,7 +2119,7 @@
       <c r="C116" s="4"/>
       <c r="D116" s="7"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="6"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
@@ -2120,7 +2129,7 @@
       <c r="C117" s="4"/>
       <c r="D117" s="7"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="8"/>
+      <c r="F117" s="6"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
@@ -2130,7 +2139,7 @@
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="6"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
@@ -2140,7 +2149,7 @@
       <c r="C119" s="4"/>
       <c r="D119" s="7"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="8"/>
+      <c r="F119" s="6"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
@@ -2150,7 +2159,7 @@
       <c r="C120" s="4"/>
       <c r="D120" s="7"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="8"/>
+      <c r="F120" s="6"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>

--- a/instances/InstanceBordeauxV1.xlsx
+++ b/instances/InstanceBordeauxV1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Employees"/>
@@ -183,7 +183,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,25 +267,40 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -591,11 +612,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="17.005" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="16.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -603,10 +624,10 @@
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -626,10 +647,10 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>45.15121765523164</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <v>-0.822092647754919</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -638,7 +659,7 @@
       <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -649,10 +670,10 @@
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="15">
         <v>45.19957452440505</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>-0.822092647754919</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -661,7 +682,7 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -670,29 +691,29 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
     </row>
   </sheetData>
@@ -707,22 +728,22 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="20.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -735,11 +756,11 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>44.7546825494</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -764,7 +785,7 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -773,7 +794,7 @@
     <col min="3" max="3" style="2" width="21.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>

--- a/instances/InstanceBordeauxV1.xlsx
+++ b/instances/InstanceBordeauxV1.xlsx
@@ -180,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -279,7 +273,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -2184,7 +2178,7 @@
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
